--- a/study02/report/correlation/signedup-participants/SimpleCorrPairAnalysis-weak.xlsx
+++ b/study02/report/correlation/signedup-participants/SimpleCorrPairAnalysis-weak.xlsx
@@ -6,15 +6,17 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="weak_spearman_25" r:id="rId3" sheetId="1"/>
+    <sheet name="weak_spearman_17" r:id="rId3" sheetId="1"/>
+    <sheet name="weak_spearman_20" r:id="rId4" sheetId="2"/>
+    <sheet name="weak_spearman_24" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="32">
-  <si>
-    <t>Correlation information for DiffTheta - Relevance in non-gamified.Master using the method: spearman</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="55">
+  <si>
+    <t>Correlation information for Gains in Skill/Knowledge - Attention in ont-gamified.Apprentice using the method: spearman</t>
   </si>
   <si>
     <t xml:space="preserve">  </t>
@@ -23,79 +25,136 @@
     <t>Correlation matrix</t>
   </si>
   <si>
-    <t>DiffTheta</t>
+    <t>Gains in Skill/Knowledge</t>
+  </si>
+  <si>
+    <t>Attention</t>
+  </si>
+  <si>
+    <t>Matrix of t-test value</t>
+  </si>
+  <si>
+    <t>Probability of values (p-values)</t>
+  </si>
+  <si>
+    <t>Confidence intervals</t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>upper</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>GiS/K-Attnt</t>
+  </si>
+  <si>
+    <t>Data source for Gains in Skill/Knowledge - Attention in ont-gamified.Apprentice</t>
+  </si>
+  <si>
+    <t>Data full source for Gains in Skill/Knowledge - Attention in ont-gamified.Apprentice</t>
+  </si>
+  <si>
+    <t>UserID</t>
+  </si>
+  <si>
+    <t>NroUSP</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>CLGroup</t>
+  </si>
+  <si>
+    <t>CLRole</t>
+  </si>
+  <si>
+    <t>PlayerRole</t>
+  </si>
+  <si>
+    <t>ont-gamified</t>
+  </si>
+  <si>
+    <t>Grupo Tosskor</t>
+  </si>
+  <si>
+    <t>Grupo Razorg</t>
+  </si>
+  <si>
+    <t>Grupo Yeka</t>
+  </si>
+  <si>
+    <t>Grupo Paldira</t>
+  </si>
+  <si>
+    <t>Grupo Losvakai</t>
+  </si>
+  <si>
+    <t>Grupo Ellaru</t>
+  </si>
+  <si>
+    <t>Grupo Koil</t>
+  </si>
+  <si>
+    <t>Grupo Belos</t>
+  </si>
+  <si>
+    <t>Apprentice</t>
+  </si>
+  <si>
+    <t>Yee Achiever</t>
+  </si>
+  <si>
+    <t>Yee Socializer</t>
+  </si>
+  <si>
+    <t>Correlation information for Gains in Skill/Knowledge - Relevance in non-gamified using the method: spearman</t>
   </si>
   <si>
     <t>Relevance</t>
   </si>
   <si>
-    <t>Matrix of t-test value</t>
-  </si>
-  <si>
-    <t>Probability of values (p-values)</t>
-  </si>
-  <si>
-    <t>Confidence intervals</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>upper</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>DffTh-Rlvnc</t>
-  </si>
-  <si>
-    <t>Data source for DiffTheta - Relevance in non-gamified.Master</t>
-  </si>
-  <si>
-    <t>Data full source for DiffTheta - Relevance in non-gamified.Master</t>
-  </si>
-  <si>
-    <t>UserID</t>
-  </si>
-  <si>
-    <t>NroUSP</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>CLGroup</t>
-  </si>
-  <si>
-    <t>CLRole</t>
-  </si>
-  <si>
-    <t>PlayerRole</t>
+    <t>GiS/K-Rlvnc</t>
+  </si>
+  <si>
+    <t>Data source for Gains in Skill/Knowledge - Relevance in non-gamified</t>
+  </si>
+  <si>
+    <t>Data full source for Gains in Skill/Knowledge - Relevance in non-gamified</t>
   </si>
   <si>
     <t>non-gamified</t>
   </si>
   <si>
+    <t>Grupo Team 10</t>
+  </si>
+  <si>
     <t>Grupo Team 6</t>
   </si>
   <si>
+    <t>Grupo Team 1</t>
+  </si>
+  <si>
+    <t>Grupo Team 9</t>
+  </si>
+  <si>
+    <t>Grupo Team 11</t>
+  </si>
+  <si>
     <t>Grupo Team 7</t>
   </si>
   <si>
-    <t>Grupo Team 11</t>
-  </si>
-  <si>
-    <t>Grupo Team 10</t>
-  </si>
-  <si>
     <t>Grupo Team 5</t>
   </si>
   <si>
-    <t>Grupo Team 9</t>
+    <t>Grupo Team 2</t>
   </si>
   <si>
     <t>Grupo Team 8</t>
@@ -104,10 +163,22 @@
     <t>Grupo Team 4</t>
   </si>
   <si>
+    <t>Grupo Team 3</t>
+  </si>
+  <si>
     <t>Master</t>
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>Correlation information for Gains in Skill/Knowledge - Relevance in non-gamified.Apprentice using the method: spearman</t>
+  </si>
+  <si>
+    <t>Data source for Gains in Skill/Knowledge - Relevance in non-gamified.Apprentice</t>
+  </si>
+  <si>
+    <t>Data full source for Gains in Skill/Knowledge - Relevance in non-gamified.Apprentice</t>
   </si>
 </sst>
 </file>
@@ -115,13 +186,959 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="75">
+  <fonts count="223">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -639,7 +1656,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="421">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -805,6 +1822,334 @@
     <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="123" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="126" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="129" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="142" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="143" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="148" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="149" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="153" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="154" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="156" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="157" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="158" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="161" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="164" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="165" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="166" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="170" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="171" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="174" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="175" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="177" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="178" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="179" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="180" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="181" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="182" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="182" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="182" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="183" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="184" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="186" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="187" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="188" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="189" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="190" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="191" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="194" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="195" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="196" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="197" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="198" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="199" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="201" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="202" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="203" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="204" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="206" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="208" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="209" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="210" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="211" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="212" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="213" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="214" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="214" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="214" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="215" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="216" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="217" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="218" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="219" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="222" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -865,7 +2210,7 @@
         <v>1.0</v>
       </c>
       <c r="C6" t="n" s="32">
-        <v>0.4664771853332246</v>
+        <v>-0.31078132073928666</v>
       </c>
     </row>
     <row r="7">
@@ -873,10 +2218,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="n" s="31">
-        <v>0.4664771853332246</v>
+        <v>-0.31078132073928666</v>
       </c>
       <c r="C7" t="n" s="32">
-        <v>0.9999999999999999</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
@@ -911,7 +2256,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="C12" t="n" s="52">
-        <v>1.2917898859331094</v>
+        <v>-1.1326660659492878</v>
       </c>
     </row>
     <row r="13">
@@ -919,10 +2264,10 @@
         <v>4</v>
       </c>
       <c r="B13" t="n" s="51">
-        <v>1.2917898859331094</v>
-      </c>
-      <c r="C13" t="n" s="52">
-        <v>1.6438247401783124E8</v>
+        <v>-1.1326660659492878</v>
+      </c>
+      <c r="C13" t="e" s="52">
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14">
@@ -957,7 +2302,7 @@
         <v>-0.0</v>
       </c>
       <c r="C18" t="n" s="72">
-        <v>0.2439547173093749</v>
+        <v>0.2794792444536069</v>
       </c>
     </row>
     <row r="19">
@@ -965,10 +2310,10 @@
         <v>4</v>
       </c>
       <c r="B19" t="n" s="71">
-        <v>0.2439547173093749</v>
+        <v>0.2794792444536069</v>
       </c>
       <c r="C19" t="n" s="72">
-        <v>3.4211388289180694E-48</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="20">
@@ -1006,16 +2351,16 @@
         <v>12</v>
       </c>
       <c r="B24" t="n" s="91">
-        <v>-0.35483488085953135</v>
+        <v>-0.7222637251531397</v>
       </c>
       <c r="C24" t="n" s="92">
-        <v>0.4664771853332246</v>
+        <v>-0.31078132073928666</v>
       </c>
       <c r="D24" t="n" s="93">
-        <v>0.8814163552584937</v>
+        <v>0.26319800603967103</v>
       </c>
       <c r="E24" t="n" s="94">
-        <v>0.2439547173093749</v>
+        <v>0.2794792444536069</v>
       </c>
     </row>
     <row r="25">
@@ -1043,277 +2388,169 @@
     </row>
     <row r="29">
       <c r="A29" t="n" s="113">
-        <v>0.14688963924618592</v>
+        <v>0.0558300209467622</v>
       </c>
       <c r="B29" t="n" s="114">
-        <v>0.7141256705666715</v>
+        <v>-0.0409808123486633</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n" s="113">
-        <v>-0.046345989731290275</v>
+        <v>-0.04414891111534071</v>
       </c>
       <c r="B30" t="n" s="114">
-        <v>0.5791018950730729</v>
+        <v>0.3673639391876393</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n" s="113">
-        <v>-0.02157182249588669</v>
+        <v>-0.10131874223823671</v>
       </c>
       <c r="B31" t="n" s="114">
-        <v>0.00634607122688361</v>
+        <v>1.7805328619608778</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n" s="113">
-        <v>-0.019331783211670558</v>
+        <v>0.038106090290863724</v>
       </c>
       <c r="B32" t="n" s="114">
-        <v>0.13182888796024017</v>
+        <v>-0.2302320085690157</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n" s="113">
-        <v>-0.01485912005564434</v>
+        <v>-0.1985089018158211</v>
       </c>
       <c r="B33" t="n" s="114">
-        <v>0.7141256705666715</v>
+        <v>1.7805328619608778</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n" s="113">
-        <v>-0.026619631485678533</v>
+        <v>0.04999542669525498</v>
       </c>
       <c r="B34" t="n" s="114">
-        <v>-0.11419269077722653</v>
+        <v>-0.951906627115639</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n" s="113">
-        <v>-0.09379854006121276</v>
+        <v>-0.03135382139866229</v>
       </c>
       <c r="B35" t="n" s="114">
-        <v>0.00634607122688361</v>
+        <v>-0.8287803566145647</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n" s="113">
-        <v>0.07859940130841217</v>
+        <v>-0.04944352677652368</v>
       </c>
       <c r="B36" t="n" s="114">
-        <v>0.00634607122688361</v>
+        <v>0.3673639391876393</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="s">
+      <c r="A37" t="n" s="113">
+        <v>0.11888874974223204</v>
+      </c>
+      <c r="B37" t="n" s="114">
+        <v>-1.3006930783128259</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n" s="113">
+        <v>0.19714699827609078</v>
+      </c>
+      <c r="B38" t="n" s="114">
+        <v>0.9382374828508123</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n" s="113">
+        <v>-0.11861299996385836</v>
+      </c>
+      <c r="B39" t="n" s="114">
+        <v>-0.0409808123486633</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n" s="113">
+        <v>0.11050904127882963</v>
+      </c>
+      <c r="B40" t="n" s="114">
+        <v>1.7805328619608778</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n" s="113">
+        <v>0.28661041880193977</v>
+      </c>
+      <c r="B41" t="n" s="114">
+        <v>-0.40202239655355587</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n" s="113">
+        <v>0.05893550978126972</v>
+      </c>
+      <c r="B42" t="n" s="114">
+        <v>0.3673639391876393</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="s">
+    <row r="44">
+      <c r="A44" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="s" s="118">
+    <row r="45">
+      <c r="A45" t="s" s="118">
         <v>14</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="s" s="132">
+    <row r="46">
+      <c r="A46" t="s" s="132">
         <v>15</v>
       </c>
-      <c r="B40" t="s" s="132">
+      <c r="B46" t="s" s="132">
         <v>16</v>
       </c>
-      <c r="C40" t="s" s="132">
+      <c r="C46" t="s" s="132">
         <v>17</v>
       </c>
-      <c r="D40" t="s" s="132">
+      <c r="D46" t="s" s="132">
         <v>18</v>
       </c>
-      <c r="E40" t="s" s="132">
+      <c r="E46" t="s" s="132">
         <v>19</v>
       </c>
-      <c r="F40" t="s" s="132">
+      <c r="F46" t="s" s="132">
         <v>20</v>
       </c>
-      <c r="G40" t="s" s="132">
+      <c r="G46" t="s" s="132">
         <v>3</v>
       </c>
-      <c r="H40" t="s" s="132">
+      <c r="H46" t="s" s="132">
         <v>4</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n" s="133">
-        <v>10175.0</v>
-      </c>
-      <c r="B41" t="n" s="134">
-        <v>1.03107E7</v>
-      </c>
-      <c r="C41" t="s" s="135">
-        <v>21</v>
-      </c>
-      <c r="D41" t="s" s="136">
-        <v>22</v>
-      </c>
-      <c r="E41" t="s" s="137">
-        <v>30</v>
-      </c>
-      <c r="F41" t="s" s="138">
-        <v>31</v>
-      </c>
-      <c r="G41" t="n" s="139">
-        <v>0.14688963924618592</v>
-      </c>
-      <c r="H41" t="n" s="140">
-        <v>0.7141256705666715</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n" s="133">
-        <v>10184.0</v>
-      </c>
-      <c r="B42" t="n" s="134">
-        <v>1.0276675E7</v>
-      </c>
-      <c r="C42" t="s" s="135">
-        <v>21</v>
-      </c>
-      <c r="D42" t="s" s="136">
-        <v>23</v>
-      </c>
-      <c r="E42" t="s" s="137">
-        <v>30</v>
-      </c>
-      <c r="F42" t="s" s="138">
-        <v>31</v>
-      </c>
-      <c r="G42" t="n" s="139">
-        <v>-0.046345989731290275</v>
-      </c>
-      <c r="H42" t="n" s="140">
-        <v>0.5791018950730729</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n" s="133">
-        <v>10197.0</v>
-      </c>
-      <c r="B43" t="n" s="134">
-        <v>1.0276661E7</v>
-      </c>
-      <c r="C43" t="s" s="135">
-        <v>21</v>
-      </c>
-      <c r="D43" t="s" s="136">
-        <v>24</v>
-      </c>
-      <c r="E43" t="s" s="137">
-        <v>30</v>
-      </c>
-      <c r="F43" t="s" s="138">
-        <v>31</v>
-      </c>
-      <c r="G43" t="n" s="139">
-        <v>-0.02157182249588669</v>
-      </c>
-      <c r="H43" t="n" s="140">
-        <v>0.00634607122688361</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n" s="133">
-        <v>10201.0</v>
-      </c>
-      <c r="B44" t="n" s="134">
-        <v>1.0276928E7</v>
-      </c>
-      <c r="C44" t="s" s="135">
-        <v>21</v>
-      </c>
-      <c r="D44" t="s" s="136">
-        <v>25</v>
-      </c>
-      <c r="E44" t="s" s="137">
-        <v>30</v>
-      </c>
-      <c r="F44" t="s" s="138">
-        <v>31</v>
-      </c>
-      <c r="G44" t="n" s="139">
-        <v>-0.019331783211670558</v>
-      </c>
-      <c r="H44" t="n" s="140">
-        <v>0.13182888796024017</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n" s="133">
-        <v>10204.0</v>
-      </c>
-      <c r="B45" t="n" s="134">
-        <v>1.0310471E7</v>
-      </c>
-      <c r="C45" t="s" s="135">
-        <v>21</v>
-      </c>
-      <c r="D45" t="s" s="136">
-        <v>26</v>
-      </c>
-      <c r="E45" t="s" s="137">
-        <v>30</v>
-      </c>
-      <c r="F45" t="s" s="138">
-        <v>31</v>
-      </c>
-      <c r="G45" t="n" s="139">
-        <v>-0.01485912005564434</v>
-      </c>
-      <c r="H45" t="n" s="140">
-        <v>0.7141256705666715</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n" s="133">
-        <v>10206.0</v>
-      </c>
-      <c r="B46" t="n" s="134">
-        <v>1.0310721E7</v>
-      </c>
-      <c r="C46" t="s" s="135">
-        <v>21</v>
-      </c>
-      <c r="D46" t="s" s="136">
-        <v>27</v>
-      </c>
-      <c r="E46" t="s" s="137">
-        <v>30</v>
-      </c>
-      <c r="F46" t="s" s="138">
-        <v>31</v>
-      </c>
-      <c r="G46" t="n" s="139">
-        <v>-0.026619631485678533</v>
-      </c>
-      <c r="H46" t="n" s="140">
-        <v>-0.11419269077722653</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n" s="133">
-        <v>10213.0</v>
+        <v>10179.0</v>
       </c>
       <c r="B47" t="n" s="134">
-        <v>1.027704E7</v>
+        <v>1.0310759E7</v>
       </c>
       <c r="C47" t="s" s="135">
         <v>21</v>
       </c>
       <c r="D47" t="s" s="136">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E47" t="s" s="137">
         <v>30</v>
@@ -1322,24 +2559,24 @@
         <v>31</v>
       </c>
       <c r="G47" t="n" s="139">
-        <v>-0.09379854006121276</v>
+        <v>0.0558300209467622</v>
       </c>
       <c r="H47" t="n" s="140">
-        <v>0.00634607122688361</v>
+        <v>-0.0409808123486633</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n" s="133">
-        <v>10231.0</v>
+        <v>10187.0</v>
       </c>
       <c r="B48" t="n" s="134">
-        <v>1.0276911E7</v>
+        <v>9790781.0</v>
       </c>
       <c r="C48" t="s" s="135">
         <v>21</v>
       </c>
       <c r="D48" t="s" s="136">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E48" t="s" s="137">
         <v>30</v>
@@ -1348,10 +2585,2578 @@
         <v>31</v>
       </c>
       <c r="G48" t="n" s="139">
-        <v>0.07859940130841217</v>
+        <v>-0.04414891111534071</v>
       </c>
       <c r="H48" t="n" s="140">
-        <v>0.00634607122688361</v>
+        <v>0.3673639391876393</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n" s="133">
+        <v>10192.0</v>
+      </c>
+      <c r="B49" t="n" s="134">
+        <v>1.0276682E7</v>
+      </c>
+      <c r="C49" t="s" s="135">
+        <v>21</v>
+      </c>
+      <c r="D49" t="s" s="136">
+        <v>24</v>
+      </c>
+      <c r="E49" t="s" s="137">
+        <v>30</v>
+      </c>
+      <c r="F49" t="s" s="138">
+        <v>32</v>
+      </c>
+      <c r="G49" t="n" s="139">
+        <v>-0.10131874223823671</v>
+      </c>
+      <c r="H49" t="n" s="140">
+        <v>1.7805328619608778</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n" s="133">
+        <v>10202.0</v>
+      </c>
+      <c r="B50" t="n" s="134">
+        <v>1.0277036E7</v>
+      </c>
+      <c r="C50" t="s" s="135">
+        <v>21</v>
+      </c>
+      <c r="D50" t="s" s="136">
+        <v>25</v>
+      </c>
+      <c r="E50" t="s" s="137">
+        <v>30</v>
+      </c>
+      <c r="F50" t="s" s="138">
+        <v>31</v>
+      </c>
+      <c r="G50" t="n" s="139">
+        <v>0.038106090290863724</v>
+      </c>
+      <c r="H50" t="n" s="140">
+        <v>-0.2302320085690157</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n" s="133">
+        <v>10203.0</v>
+      </c>
+      <c r="B51" t="n" s="134">
+        <v>9921470.0</v>
+      </c>
+      <c r="C51" t="s" s="135">
+        <v>21</v>
+      </c>
+      <c r="D51" t="s" s="136">
+        <v>25</v>
+      </c>
+      <c r="E51" t="s" s="137">
+        <v>30</v>
+      </c>
+      <c r="F51" t="s" s="138">
+        <v>31</v>
+      </c>
+      <c r="G51" t="n" s="139">
+        <v>-0.1985089018158211</v>
+      </c>
+      <c r="H51" t="n" s="140">
+        <v>1.7805328619608778</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n" s="133">
+        <v>10210.0</v>
+      </c>
+      <c r="B52" t="n" s="134">
+        <v>1.0277015E7</v>
+      </c>
+      <c r="C52" t="s" s="135">
+        <v>21</v>
+      </c>
+      <c r="D52" t="s" s="136">
+        <v>26</v>
+      </c>
+      <c r="E52" t="s" s="137">
+        <v>30</v>
+      </c>
+      <c r="F52" t="s" s="138">
+        <v>31</v>
+      </c>
+      <c r="G52" t="n" s="139">
+        <v>0.04999542669525498</v>
+      </c>
+      <c r="H52" t="n" s="140">
+        <v>-0.951906627115639</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n" s="133">
+        <v>10212.0</v>
+      </c>
+      <c r="B53" t="n" s="134">
+        <v>9065750.0</v>
+      </c>
+      <c r="C53" t="s" s="135">
+        <v>21</v>
+      </c>
+      <c r="D53" t="s" s="136">
+        <v>27</v>
+      </c>
+      <c r="E53" t="s" s="137">
+        <v>30</v>
+      </c>
+      <c r="F53" t="s" s="138">
+        <v>32</v>
+      </c>
+      <c r="G53" t="n" s="139">
+        <v>-0.03135382139866229</v>
+      </c>
+      <c r="H53" t="n" s="140">
+        <v>-0.8287803566145647</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n" s="133">
+        <v>10214.0</v>
+      </c>
+      <c r="B54" t="n" s="134">
+        <v>1.0277022E7</v>
+      </c>
+      <c r="C54" t="s" s="135">
+        <v>21</v>
+      </c>
+      <c r="D54" t="s" s="136">
+        <v>28</v>
+      </c>
+      <c r="E54" t="s" s="137">
+        <v>30</v>
+      </c>
+      <c r="F54" t="s" s="138">
+        <v>31</v>
+      </c>
+      <c r="G54" t="n" s="139">
+        <v>-0.04944352677652368</v>
+      </c>
+      <c r="H54" t="n" s="140">
+        <v>0.3673639391876393</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n" s="133">
+        <v>10219.0</v>
+      </c>
+      <c r="B55" t="n" s="134">
+        <v>1.0276831E7</v>
+      </c>
+      <c r="C55" t="s" s="135">
+        <v>21</v>
+      </c>
+      <c r="D55" t="s" s="136">
+        <v>23</v>
+      </c>
+      <c r="E55" t="s" s="137">
+        <v>30</v>
+      </c>
+      <c r="F55" t="s" s="138">
+        <v>31</v>
+      </c>
+      <c r="G55" t="n" s="139">
+        <v>0.11888874974223204</v>
+      </c>
+      <c r="H55" t="n" s="140">
+        <v>-1.3006930783128259</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n" s="133">
+        <v>10226.0</v>
+      </c>
+      <c r="B56" t="n" s="134">
+        <v>1.0310342E7</v>
+      </c>
+      <c r="C56" t="s" s="135">
+        <v>21</v>
+      </c>
+      <c r="D56" t="s" s="136">
+        <v>24</v>
+      </c>
+      <c r="E56" t="s" s="137">
+        <v>30</v>
+      </c>
+      <c r="F56" t="s" s="138">
+        <v>32</v>
+      </c>
+      <c r="G56" t="n" s="139">
+        <v>0.19714699827609078</v>
+      </c>
+      <c r="H56" t="n" s="140">
+        <v>0.9382374828508123</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n" s="133">
+        <v>10228.0</v>
+      </c>
+      <c r="B57" t="n" s="134">
+        <v>1.0310492E7</v>
+      </c>
+      <c r="C57" t="s" s="135">
+        <v>21</v>
+      </c>
+      <c r="D57" t="s" s="136">
+        <v>26</v>
+      </c>
+      <c r="E57" t="s" s="137">
+        <v>30</v>
+      </c>
+      <c r="F57" t="s" s="138">
+        <v>31</v>
+      </c>
+      <c r="G57" t="n" s="139">
+        <v>-0.11861299996385836</v>
+      </c>
+      <c r="H57" t="n" s="140">
+        <v>-0.0409808123486633</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n" s="133">
+        <v>10230.0</v>
+      </c>
+      <c r="B58" t="n" s="134">
+        <v>1.0351992E7</v>
+      </c>
+      <c r="C58" t="s" s="135">
+        <v>21</v>
+      </c>
+      <c r="D58" t="s" s="136">
+        <v>28</v>
+      </c>
+      <c r="E58" t="s" s="137">
+        <v>30</v>
+      </c>
+      <c r="F58" t="s" s="138">
+        <v>31</v>
+      </c>
+      <c r="G58" t="n" s="139">
+        <v>0.11050904127882963</v>
+      </c>
+      <c r="H58" t="n" s="140">
+        <v>1.7805328619608778</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n" s="133">
+        <v>10237.0</v>
+      </c>
+      <c r="B59" t="n" s="134">
+        <v>1.0377688E7</v>
+      </c>
+      <c r="C59" t="s" s="135">
+        <v>21</v>
+      </c>
+      <c r="D59" t="s" s="136">
+        <v>27</v>
+      </c>
+      <c r="E59" t="s" s="137">
+        <v>30</v>
+      </c>
+      <c r="F59" t="s" s="138">
+        <v>32</v>
+      </c>
+      <c r="G59" t="n" s="139">
+        <v>0.28661041880193977</v>
+      </c>
+      <c r="H59" t="n" s="140">
+        <v>-0.40202239655355587</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n" s="133">
+        <v>10238.0</v>
+      </c>
+      <c r="B60" t="n" s="134">
+        <v>1.0276953E7</v>
+      </c>
+      <c r="C60" t="s" s="135">
+        <v>21</v>
+      </c>
+      <c r="D60" t="s" s="136">
+        <v>29</v>
+      </c>
+      <c r="E60" t="s" s="137">
+        <v>30</v>
+      </c>
+      <c r="F60" t="s" s="138">
+        <v>32</v>
+      </c>
+      <c r="G60" t="n" s="139">
+        <v>0.05893550978126972</v>
+      </c>
+      <c r="H60" t="n" s="140">
+        <v>0.3673639391876393</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="14.0" customWidth="true"/>
+    <col min="2" max="2" width="14.0" customWidth="true"/>
+    <col min="3" max="3" width="14.0" customWidth="true"/>
+    <col min="4" max="4" width="14.0" customWidth="true"/>
+    <col min="5" max="5" width="14.0" customWidth="true"/>
+    <col min="6" max="6" width="14.0" customWidth="true"/>
+    <col min="7" max="7" width="14.0" customWidth="true"/>
+    <col min="8" max="8" width="14.0" customWidth="true"/>
+    <col min="9" max="9" width="14.0" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="142">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="156">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5"/>
+      <c r="B5" t="s" s="170">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s" s="170">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="166">
+        <v>3</v>
+      </c>
+      <c r="B6" t="n" s="171">
+        <v>1.0</v>
+      </c>
+      <c r="C6" t="n" s="172">
+        <v>0.37948904069403083</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="166">
+        <v>34</v>
+      </c>
+      <c r="B7" t="n" s="171">
+        <v>0.37948904069403083</v>
+      </c>
+      <c r="C7" t="n" s="172">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="176">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11"/>
+      <c r="B11" t="s" s="190">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s" s="190">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="186">
+        <v>3</v>
+      </c>
+      <c r="B12" t="e" s="191">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C12" t="n" s="192">
+        <v>2.1313131524549256</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="186">
+        <v>34</v>
+      </c>
+      <c r="B13" t="n" s="191">
+        <v>2.1313131524549256</v>
+      </c>
+      <c r="C13" t="e" s="192">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="196">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="210">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s" s="210">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="206">
+        <v>3</v>
+      </c>
+      <c r="B18" t="n" s="211">
+        <v>-0.0</v>
+      </c>
+      <c r="C18" t="n" s="212">
+        <v>0.04231753788474143</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="206">
+        <v>34</v>
+      </c>
+      <c r="B19" t="n" s="211">
+        <v>0.04231753788474143</v>
+      </c>
+      <c r="C19" t="n" s="212">
+        <v>-0.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="216">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23"/>
+      <c r="B23" t="s" s="230">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s" s="230">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s" s="230">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s" s="230">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="226">
+        <v>35</v>
+      </c>
+      <c r="B24" t="n" s="231">
+        <v>0.015080886226346303</v>
+      </c>
+      <c r="C24" t="n" s="232">
+        <v>0.37948904069403083</v>
+      </c>
+      <c r="D24" t="n" s="233">
+        <v>0.6549070454125089</v>
+      </c>
+      <c r="E24" t="n" s="234">
+        <v>0.04231753788474143</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="238">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="252">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s" s="252">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n" s="253">
+        <v>-0.24347675348321504</v>
+      </c>
+      <c r="B29" t="n" s="254">
+        <v>-0.8686977802207364</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n" s="253">
+        <v>-0.10954686591505286</v>
+      </c>
+      <c r="B30" t="n" s="254">
+        <v>0.0060927837546178865</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n" s="253">
+        <v>-0.0018499700899766713</v>
+      </c>
+      <c r="B31" t="n" s="254">
+        <v>-1.0275471835870793</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n" s="253">
+        <v>0.10936128804170442</v>
+      </c>
+      <c r="B32" t="n" s="254">
+        <v>0.713937307269422</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n" s="253">
+        <v>-0.03771384210411363</v>
+      </c>
+      <c r="B33" t="n" s="254">
+        <v>-1.0275471835870793</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n" s="253">
+        <v>-0.10127107756118965</v>
+      </c>
+      <c r="B34" t="n" s="254">
+        <v>-0.11445695422023319</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n" s="253">
+        <v>0.04606028751319116</v>
+      </c>
+      <c r="B35" t="n" s="254">
+        <v>-0.3506275080934047</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n" s="253">
+        <v>0.12162452912090042</v>
+      </c>
+      <c r="B36" t="n" s="254">
+        <v>-0.726351606846974</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n" s="253">
+        <v>0.020923419414545792</v>
+      </c>
+      <c r="B37" t="n" s="254">
+        <v>0.5788749914041235</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n" s="253">
+        <v>-0.12817256933349683</v>
+      </c>
+      <c r="B38" t="n" s="254">
+        <v>0.0060927837546178865</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n" s="253">
+        <v>-0.04861548825069362</v>
+      </c>
+      <c r="B39" t="n" s="254">
+        <v>-1.0275471835870793</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n" s="253">
+        <v>0.0585975394271207</v>
+      </c>
+      <c r="B40" t="n" s="254">
+        <v>-0.11445695422023319</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n" s="253">
+        <v>0.1370768179638137</v>
+      </c>
+      <c r="B41" t="n" s="254">
+        <v>-0.8686977802207364</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n" s="253">
+        <v>-0.0384477872777069</v>
+      </c>
+      <c r="B42" t="n" s="254">
+        <v>0.0060927837546178865</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n" s="253">
+        <v>0.26183850319100677</v>
+      </c>
+      <c r="B43" t="n" s="254">
+        <v>0.7792092851215531</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n" s="253">
+        <v>-0.12860935188090447</v>
+      </c>
+      <c r="B44" t="n" s="254">
+        <v>-0.23262451137380655</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n" s="253">
+        <v>0.03479485469110266</v>
+      </c>
+      <c r="B45" t="n" s="254">
+        <v>0.131585852677883</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n" s="253">
+        <v>-0.014255977234340897</v>
+      </c>
+      <c r="B46" t="n" s="254">
+        <v>0.713937307269422</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n" s="253">
+        <v>-0.06206997155468907</v>
+      </c>
+      <c r="B47" t="n" s="254">
+        <v>-0.11445695422023318</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n" s="253">
+        <v>-0.03911696250900538</v>
+      </c>
+      <c r="B48" t="n" s="254">
+        <v>0.0060927837546178865</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n" s="253">
+        <v>0.24794158682075626</v>
+      </c>
+      <c r="B49" t="n" s="254">
+        <v>1.7045065858769317</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n" s="253">
+        <v>-0.2655384433709601</v>
+      </c>
+      <c r="B50" t="n" s="254">
+        <v>0.131585852677883</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n" s="253">
+        <v>0.26183850319100677</v>
+      </c>
+      <c r="B51" t="n" s="254">
+        <v>1.7045065858769317</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n" s="253">
+        <v>-0.11548307838786905</v>
+      </c>
+      <c r="B52" t="n" s="254">
+        <v>-0.726351606846974</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n" s="253">
+        <v>-0.03932367134088546</v>
+      </c>
+      <c r="B53" t="n" s="254">
+        <v>0.5788749914041235</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n" s="253">
+        <v>0.08707774921428053</v>
+      </c>
+      <c r="B54" t="n" s="254">
+        <v>0.5788749914041235</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n" s="253">
+        <v>0.015799471351835626</v>
+      </c>
+      <c r="B55" t="n" s="254">
+        <v>0.0060927837546178865</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n" s="253">
+        <v>0.09113829642544496</v>
+      </c>
+      <c r="B56" t="n" s="254">
+        <v>1.040453210586121</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n" s="253">
+        <v>0.021253369511404815</v>
+      </c>
+      <c r="B57" t="n" s="254">
+        <v>-0.8686977802207364</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="258">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="272">
+        <v>15</v>
+      </c>
+      <c r="B61" t="s" s="272">
+        <v>16</v>
+      </c>
+      <c r="C61" t="s" s="272">
+        <v>17</v>
+      </c>
+      <c r="D61" t="s" s="272">
+        <v>18</v>
+      </c>
+      <c r="E61" t="s" s="272">
+        <v>19</v>
+      </c>
+      <c r="F61" t="s" s="272">
+        <v>20</v>
+      </c>
+      <c r="G61" t="s" s="272">
+        <v>3</v>
+      </c>
+      <c r="H61" t="s" s="272">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n" s="273">
+        <v>10169.0</v>
+      </c>
+      <c r="B62" t="n" s="274">
+        <v>1.0377538E7</v>
+      </c>
+      <c r="C62" t="s" s="275">
+        <v>38</v>
+      </c>
+      <c r="D62" t="s" s="276">
+        <v>39</v>
+      </c>
+      <c r="E62" t="s" s="277">
+        <v>30</v>
+      </c>
+      <c r="F62" t="s" s="278">
+        <v>51</v>
+      </c>
+      <c r="G62" t="n" s="279">
+        <v>-0.24347675348321504</v>
+      </c>
+      <c r="H62" t="n" s="280">
+        <v>-0.8686977802207364</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n" s="273">
+        <v>10170.0</v>
+      </c>
+      <c r="B63" t="n" s="274">
+        <v>1.0260351E7</v>
+      </c>
+      <c r="C63" t="s" s="275">
+        <v>38</v>
+      </c>
+      <c r="D63" t="s" s="276">
+        <v>40</v>
+      </c>
+      <c r="E63" t="s" s="277">
+        <v>30</v>
+      </c>
+      <c r="F63" t="s" s="278">
+        <v>51</v>
+      </c>
+      <c r="G63" t="n" s="279">
+        <v>-0.10954686591505286</v>
+      </c>
+      <c r="H63" t="n" s="280">
+        <v>0.0060927837546178865</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n" s="273">
+        <v>10174.0</v>
+      </c>
+      <c r="B64" t="n" s="274">
+        <v>1.0276852E7</v>
+      </c>
+      <c r="C64" t="s" s="275">
+        <v>38</v>
+      </c>
+      <c r="D64" t="s" s="276">
+        <v>41</v>
+      </c>
+      <c r="E64" t="s" s="277">
+        <v>30</v>
+      </c>
+      <c r="F64" t="s" s="278">
+        <v>51</v>
+      </c>
+      <c r="G64" t="n" s="279">
+        <v>-0.0018499700899766713</v>
+      </c>
+      <c r="H64" t="n" s="280">
+        <v>-1.0275471835870793</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n" s="273">
+        <v>10175.0</v>
+      </c>
+      <c r="B65" t="n" s="274">
+        <v>1.03107E7</v>
+      </c>
+      <c r="C65" t="s" s="275">
+        <v>38</v>
+      </c>
+      <c r="D65" t="s" s="276">
+        <v>40</v>
+      </c>
+      <c r="E65" t="s" s="277">
+        <v>50</v>
+      </c>
+      <c r="F65" t="s" s="278">
+        <v>51</v>
+      </c>
+      <c r="G65" t="n" s="279">
+        <v>0.10936128804170442</v>
+      </c>
+      <c r="H65" t="n" s="280">
+        <v>0.713937307269422</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n" s="273">
+        <v>10176.0</v>
+      </c>
+      <c r="B66" t="n" s="274">
+        <v>1.0276949E7</v>
+      </c>
+      <c r="C66" t="s" s="275">
+        <v>38</v>
+      </c>
+      <c r="D66" t="s" s="276">
+        <v>42</v>
+      </c>
+      <c r="E66" t="s" s="277">
+        <v>30</v>
+      </c>
+      <c r="F66" t="s" s="278">
+        <v>51</v>
+      </c>
+      <c r="G66" t="n" s="279">
+        <v>-0.03771384210411363</v>
+      </c>
+      <c r="H66" t="n" s="280">
+        <v>-1.0275471835870793</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n" s="273">
+        <v>10178.0</v>
+      </c>
+      <c r="B67" t="n" s="274">
+        <v>8656201.0</v>
+      </c>
+      <c r="C67" t="s" s="275">
+        <v>38</v>
+      </c>
+      <c r="D67" t="s" s="276">
+        <v>43</v>
+      </c>
+      <c r="E67" t="s" s="277">
+        <v>30</v>
+      </c>
+      <c r="F67" t="s" s="278">
+        <v>51</v>
+      </c>
+      <c r="G67" t="n" s="279">
+        <v>-0.10127107756118965</v>
+      </c>
+      <c r="H67" t="n" s="280">
+        <v>-0.11445695422023319</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n" s="273">
+        <v>10181.0</v>
+      </c>
+      <c r="B68" t="n" s="274">
+        <v>1.0276866E7</v>
+      </c>
+      <c r="C68" t="s" s="275">
+        <v>38</v>
+      </c>
+      <c r="D68" t="s" s="276">
+        <v>44</v>
+      </c>
+      <c r="E68" t="s" s="277">
+        <v>30</v>
+      </c>
+      <c r="F68" t="s" s="278">
+        <v>51</v>
+      </c>
+      <c r="G68" t="n" s="279">
+        <v>0.04606028751319116</v>
+      </c>
+      <c r="H68" t="n" s="280">
+        <v>-0.3506275080934047</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n" s="273">
+        <v>10183.0</v>
+      </c>
+      <c r="B69" t="n" s="274">
+        <v>1.035203E7</v>
+      </c>
+      <c r="C69" t="s" s="275">
+        <v>38</v>
+      </c>
+      <c r="D69" t="s" s="276">
+        <v>29</v>
+      </c>
+      <c r="E69" t="s" s="277">
+        <v>30</v>
+      </c>
+      <c r="F69" t="s" s="278">
+        <v>32</v>
+      </c>
+      <c r="G69" t="n" s="279">
+        <v>0.12162452912090042</v>
+      </c>
+      <c r="H69" t="n" s="280">
+        <v>-0.726351606846974</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n" s="273">
+        <v>10184.0</v>
+      </c>
+      <c r="B70" t="n" s="274">
+        <v>1.0276675E7</v>
+      </c>
+      <c r="C70" t="s" s="275">
+        <v>38</v>
+      </c>
+      <c r="D70" t="s" s="276">
+        <v>44</v>
+      </c>
+      <c r="E70" t="s" s="277">
+        <v>50</v>
+      </c>
+      <c r="F70" t="s" s="278">
+        <v>51</v>
+      </c>
+      <c r="G70" t="n" s="279">
+        <v>0.020923419414545792</v>
+      </c>
+      <c r="H70" t="n" s="280">
+        <v>0.5788749914041235</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n" s="273">
+        <v>10186.0</v>
+      </c>
+      <c r="B71" t="n" s="274">
+        <v>1.0310551E7</v>
+      </c>
+      <c r="C71" t="s" s="275">
+        <v>38</v>
+      </c>
+      <c r="D71" t="s" s="276">
+        <v>45</v>
+      </c>
+      <c r="E71" t="s" s="277">
+        <v>30</v>
+      </c>
+      <c r="F71" t="s" s="278">
+        <v>51</v>
+      </c>
+      <c r="G71" t="n" s="279">
+        <v>-0.12817256933349683</v>
+      </c>
+      <c r="H71" t="n" s="280">
+        <v>0.0060927837546178865</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n" s="273">
+        <v>10189.0</v>
+      </c>
+      <c r="B72" t="n" s="274">
+        <v>9363926.0</v>
+      </c>
+      <c r="C72" t="s" s="275">
+        <v>38</v>
+      </c>
+      <c r="D72" t="s" s="276">
+        <v>46</v>
+      </c>
+      <c r="E72" t="s" s="277">
+        <v>30</v>
+      </c>
+      <c r="F72" t="s" s="278">
+        <v>51</v>
+      </c>
+      <c r="G72" t="n" s="279">
+        <v>-0.04861548825069362</v>
+      </c>
+      <c r="H72" t="n" s="280">
+        <v>-1.0275471835870793</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n" s="273">
+        <v>10190.0</v>
+      </c>
+      <c r="B73" t="n" s="274">
+        <v>1.0276907E7</v>
+      </c>
+      <c r="C73" t="s" s="275">
+        <v>38</v>
+      </c>
+      <c r="D73" t="s" s="276">
+        <v>47</v>
+      </c>
+      <c r="E73" t="s" s="277">
+        <v>30</v>
+      </c>
+      <c r="F73" t="s" s="278">
+        <v>51</v>
+      </c>
+      <c r="G73" t="n" s="279">
+        <v>0.0585975394271207</v>
+      </c>
+      <c r="H73" t="n" s="280">
+        <v>-0.11445695422023319</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n" s="273">
+        <v>10196.0</v>
+      </c>
+      <c r="B74" t="n" s="274">
+        <v>1.0310655E7</v>
+      </c>
+      <c r="C74" t="s" s="275">
+        <v>38</v>
+      </c>
+      <c r="D74" t="s" s="276">
+        <v>45</v>
+      </c>
+      <c r="E74" t="s" s="277">
+        <v>30</v>
+      </c>
+      <c r="F74" t="s" s="278">
+        <v>51</v>
+      </c>
+      <c r="G74" t="n" s="279">
+        <v>0.1370768179638137</v>
+      </c>
+      <c r="H74" t="n" s="280">
+        <v>-0.8686977802207364</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n" s="273">
+        <v>10197.0</v>
+      </c>
+      <c r="B75" t="n" s="274">
+        <v>1.0276661E7</v>
+      </c>
+      <c r="C75" t="s" s="275">
+        <v>38</v>
+      </c>
+      <c r="D75" t="s" s="276">
+        <v>43</v>
+      </c>
+      <c r="E75" t="s" s="277">
+        <v>50</v>
+      </c>
+      <c r="F75" t="s" s="278">
+        <v>51</v>
+      </c>
+      <c r="G75" t="n" s="279">
+        <v>-0.0384477872777069</v>
+      </c>
+      <c r="H75" t="n" s="280">
+        <v>0.0060927837546178865</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n" s="273">
+        <v>10198.0</v>
+      </c>
+      <c r="B76" t="n" s="274">
+        <v>1.0310888E7</v>
+      </c>
+      <c r="C76" t="s" s="275">
+        <v>38</v>
+      </c>
+      <c r="D76" t="s" s="276">
+        <v>41</v>
+      </c>
+      <c r="E76" t="s" s="277">
+        <v>30</v>
+      </c>
+      <c r="F76" t="s" s="278">
+        <v>51</v>
+      </c>
+      <c r="G76" t="n" s="279">
+        <v>0.26183850319100677</v>
+      </c>
+      <c r="H76" t="n" s="280">
+        <v>0.7792092851215531</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n" s="273">
+        <v>10200.0</v>
+      </c>
+      <c r="B77" t="n" s="274">
+        <v>9795272.0</v>
+      </c>
+      <c r="C77" t="s" s="275">
+        <v>38</v>
+      </c>
+      <c r="D77" t="s" s="276">
+        <v>48</v>
+      </c>
+      <c r="E77" t="s" s="277">
+        <v>30</v>
+      </c>
+      <c r="F77" t="s" s="278">
+        <v>51</v>
+      </c>
+      <c r="G77" t="n" s="279">
+        <v>-0.12860935188090447</v>
+      </c>
+      <c r="H77" t="n" s="280">
+        <v>-0.23262451137380655</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n" s="273">
+        <v>10201.0</v>
+      </c>
+      <c r="B78" t="n" s="274">
+        <v>1.0276928E7</v>
+      </c>
+      <c r="C78" t="s" s="275">
+        <v>38</v>
+      </c>
+      <c r="D78" t="s" s="276">
+        <v>39</v>
+      </c>
+      <c r="E78" t="s" s="277">
+        <v>50</v>
+      </c>
+      <c r="F78" t="s" s="278">
+        <v>51</v>
+      </c>
+      <c r="G78" t="n" s="279">
+        <v>0.03479485469110266</v>
+      </c>
+      <c r="H78" t="n" s="280">
+        <v>0.131585852677883</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n" s="273">
+        <v>10204.0</v>
+      </c>
+      <c r="B79" t="n" s="274">
+        <v>1.0310471E7</v>
+      </c>
+      <c r="C79" t="s" s="275">
+        <v>38</v>
+      </c>
+      <c r="D79" t="s" s="276">
+        <v>45</v>
+      </c>
+      <c r="E79" t="s" s="277">
+        <v>50</v>
+      </c>
+      <c r="F79" t="s" s="278">
+        <v>51</v>
+      </c>
+      <c r="G79" t="n" s="279">
+        <v>-0.014255977234340897</v>
+      </c>
+      <c r="H79" t="n" s="280">
+        <v>0.713937307269422</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n" s="273">
+        <v>10206.0</v>
+      </c>
+      <c r="B80" t="n" s="274">
+        <v>1.0310721E7</v>
+      </c>
+      <c r="C80" t="s" s="275">
+        <v>38</v>
+      </c>
+      <c r="D80" t="s" s="276">
+        <v>42</v>
+      </c>
+      <c r="E80" t="s" s="277">
+        <v>50</v>
+      </c>
+      <c r="F80" t="s" s="278">
+        <v>51</v>
+      </c>
+      <c r="G80" t="n" s="279">
+        <v>-0.06206997155468907</v>
+      </c>
+      <c r="H80" t="n" s="280">
+        <v>-0.11445695422023318</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n" s="273">
+        <v>10213.0</v>
+      </c>
+      <c r="B81" t="n" s="274">
+        <v>1.027704E7</v>
+      </c>
+      <c r="C81" t="s" s="275">
+        <v>38</v>
+      </c>
+      <c r="D81" t="s" s="276">
+        <v>47</v>
+      </c>
+      <c r="E81" t="s" s="277">
+        <v>50</v>
+      </c>
+      <c r="F81" t="s" s="278">
+        <v>51</v>
+      </c>
+      <c r="G81" t="n" s="279">
+        <v>-0.03911696250900538</v>
+      </c>
+      <c r="H81" t="n" s="280">
+        <v>0.0060927837546178865</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n" s="273">
+        <v>10215.0</v>
+      </c>
+      <c r="B82" t="n" s="274">
+        <v>9285227.0</v>
+      </c>
+      <c r="C82" t="s" s="275">
+        <v>38</v>
+      </c>
+      <c r="D82" t="s" s="276">
+        <v>44</v>
+      </c>
+      <c r="E82" t="s" s="277">
+        <v>30</v>
+      </c>
+      <c r="F82" t="s" s="278">
+        <v>51</v>
+      </c>
+      <c r="G82" t="n" s="279">
+        <v>0.24794158682075626</v>
+      </c>
+      <c r="H82" t="n" s="280">
+        <v>1.7045065858769317</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n" s="273">
+        <v>10218.0</v>
+      </c>
+      <c r="B83" t="n" s="274">
+        <v>9842913.0</v>
+      </c>
+      <c r="C83" t="s" s="275">
+        <v>38</v>
+      </c>
+      <c r="D83" t="s" s="276">
+        <v>39</v>
+      </c>
+      <c r="E83" t="s" s="277">
+        <v>30</v>
+      </c>
+      <c r="F83" t="s" s="278">
+        <v>51</v>
+      </c>
+      <c r="G83" t="n" s="279">
+        <v>-0.2655384433709601</v>
+      </c>
+      <c r="H83" t="n" s="280">
+        <v>0.131585852677883</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n" s="273">
+        <v>10220.0</v>
+      </c>
+      <c r="B84" t="n" s="274">
+        <v>9760151.0</v>
+      </c>
+      <c r="C84" t="s" s="275">
+        <v>38</v>
+      </c>
+      <c r="D84" t="s" s="276">
+        <v>48</v>
+      </c>
+      <c r="E84" t="s" s="277">
+        <v>30</v>
+      </c>
+      <c r="F84" t="s" s="278">
+        <v>51</v>
+      </c>
+      <c r="G84" t="n" s="279">
+        <v>0.26183850319100677</v>
+      </c>
+      <c r="H84" t="n" s="280">
+        <v>1.7045065858769317</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n" s="273">
+        <v>10221.0</v>
+      </c>
+      <c r="B85" t="n" s="274">
+        <v>9082496.0</v>
+      </c>
+      <c r="C85" t="s" s="275">
+        <v>38</v>
+      </c>
+      <c r="D85" t="s" s="276">
+        <v>49</v>
+      </c>
+      <c r="E85" t="s" s="277">
+        <v>30</v>
+      </c>
+      <c r="F85" t="s" s="278">
+        <v>51</v>
+      </c>
+      <c r="G85" t="n" s="279">
+        <v>-0.11548307838786905</v>
+      </c>
+      <c r="H85" t="n" s="280">
+        <v>-0.726351606846974</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n" s="273">
+        <v>10224.0</v>
+      </c>
+      <c r="B86" t="n" s="274">
+        <v>9368772.0</v>
+      </c>
+      <c r="C86" t="s" s="275">
+        <v>38</v>
+      </c>
+      <c r="D86" t="s" s="276">
+        <v>42</v>
+      </c>
+      <c r="E86" t="s" s="277">
+        <v>30</v>
+      </c>
+      <c r="F86" t="s" s="278">
+        <v>51</v>
+      </c>
+      <c r="G86" t="n" s="279">
+        <v>-0.03932367134088546</v>
+      </c>
+      <c r="H86" t="n" s="280">
+        <v>0.5788749914041235</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n" s="273">
+        <v>10227.0</v>
+      </c>
+      <c r="B87" t="n" s="274">
+        <v>9274382.0</v>
+      </c>
+      <c r="C87" t="s" s="275">
+        <v>38</v>
+      </c>
+      <c r="D87" t="s" s="276">
+        <v>46</v>
+      </c>
+      <c r="E87" t="s" s="277">
+        <v>30</v>
+      </c>
+      <c r="F87" t="s" s="278">
+        <v>51</v>
+      </c>
+      <c r="G87" t="n" s="279">
+        <v>0.08707774921428053</v>
+      </c>
+      <c r="H87" t="n" s="280">
+        <v>0.5788749914041235</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n" s="273">
+        <v>10231.0</v>
+      </c>
+      <c r="B88" t="n" s="274">
+        <v>1.0276911E7</v>
+      </c>
+      <c r="C88" t="s" s="275">
+        <v>38</v>
+      </c>
+      <c r="D88" t="s" s="276">
+        <v>48</v>
+      </c>
+      <c r="E88" t="s" s="277">
+        <v>50</v>
+      </c>
+      <c r="F88" t="s" s="278">
+        <v>51</v>
+      </c>
+      <c r="G88" t="n" s="279">
+        <v>0.015799471351835626</v>
+      </c>
+      <c r="H88" t="n" s="280">
+        <v>0.0060927837546178865</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n" s="273">
+        <v>10232.0</v>
+      </c>
+      <c r="B89" t="n" s="274">
+        <v>1.0276974E7</v>
+      </c>
+      <c r="C89" t="s" s="275">
+        <v>38</v>
+      </c>
+      <c r="D89" t="s" s="276">
+        <v>49</v>
+      </c>
+      <c r="E89" t="s" s="277">
+        <v>30</v>
+      </c>
+      <c r="F89" t="s" s="278">
+        <v>51</v>
+      </c>
+      <c r="G89" t="n" s="279">
+        <v>0.09113829642544496</v>
+      </c>
+      <c r="H89" t="n" s="280">
+        <v>1.040453210586121</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n" s="273">
+        <v>10240.0</v>
+      </c>
+      <c r="B90" t="n" s="274">
+        <v>1.0276654E7</v>
+      </c>
+      <c r="C90" t="s" s="275">
+        <v>38</v>
+      </c>
+      <c r="D90" t="s" s="276">
+        <v>47</v>
+      </c>
+      <c r="E90" t="s" s="277">
+        <v>30</v>
+      </c>
+      <c r="F90" t="s" s="278">
+        <v>51</v>
+      </c>
+      <c r="G90" t="n" s="279">
+        <v>0.021253369511404815</v>
+      </c>
+      <c r="H90" t="n" s="280">
+        <v>-0.8686977802207364</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="14.0" customWidth="true"/>
+    <col min="2" max="2" width="14.0" customWidth="true"/>
+    <col min="3" max="3" width="14.0" customWidth="true"/>
+    <col min="4" max="4" width="14.0" customWidth="true"/>
+    <col min="5" max="5" width="14.0" customWidth="true"/>
+    <col min="6" max="6" width="14.0" customWidth="true"/>
+    <col min="7" max="7" width="14.0" customWidth="true"/>
+    <col min="8" max="8" width="14.0" customWidth="true"/>
+    <col min="9" max="9" width="14.0" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="282">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="296">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5"/>
+      <c r="B5" t="s" s="310">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s" s="310">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="306">
+        <v>3</v>
+      </c>
+      <c r="B6" t="n" s="311">
+        <v>1.0</v>
+      </c>
+      <c r="C6" t="n" s="312">
+        <v>0.3382282918359979</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="306">
+        <v>34</v>
+      </c>
+      <c r="B7" t="n" s="311">
+        <v>0.3382282918359979</v>
+      </c>
+      <c r="C7" t="n" s="312">
+        <v>0.9999999999999998</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="316">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11"/>
+      <c r="B11" t="s" s="330">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s" s="330">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="326">
+        <v>3</v>
+      </c>
+      <c r="B12" t="e" s="331">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C12" t="n" s="332">
+        <v>1.5666339399180431</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="326">
+        <v>34</v>
+      </c>
+      <c r="B13" t="n" s="331">
+        <v>1.5666339399180431</v>
+      </c>
+      <c r="C13" t="n" s="332">
+        <v>2.0684341048247027E8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="336">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="350">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s" s="350">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="346">
+        <v>3</v>
+      </c>
+      <c r="B18" t="n" s="351">
+        <v>-0.0</v>
+      </c>
+      <c r="C18" t="n" s="352">
+        <v>0.13370400894716633</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="346">
+        <v>34</v>
+      </c>
+      <c r="B19" t="n" s="351">
+        <v>0.13370400894716633</v>
+      </c>
+      <c r="C19" t="n" s="352">
+        <v>2.557517359705382E-147</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="356">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23"/>
+      <c r="B23" t="s" s="370">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s" s="370">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s" s="370">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s" s="370">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="366">
+        <v>35</v>
+      </c>
+      <c r="B24" t="n" s="371">
+        <v>-0.10943728078810049</v>
+      </c>
+      <c r="C24" t="n" s="372">
+        <v>0.3382282918359979</v>
+      </c>
+      <c r="D24" t="n" s="373">
+        <v>0.6718230702749303</v>
+      </c>
+      <c r="E24" t="n" s="374">
+        <v>0.13370400894716633</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="378">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="392">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s" s="392">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n" s="393">
+        <v>-0.24347675348321504</v>
+      </c>
+      <c r="B29" t="n" s="394">
+        <v>-0.8686977802207364</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n" s="393">
+        <v>-0.10954686591505286</v>
+      </c>
+      <c r="B30" t="n" s="394">
+        <v>0.0060927837546178865</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n" s="393">
+        <v>-0.0018499700899766713</v>
+      </c>
+      <c r="B31" t="n" s="394">
+        <v>-1.0275471835870793</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n" s="393">
+        <v>-0.03771384210411363</v>
+      </c>
+      <c r="B32" t="n" s="394">
+        <v>-1.0275471835870793</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n" s="393">
+        <v>-0.10127107756118965</v>
+      </c>
+      <c r="B33" t="n" s="394">
+        <v>-0.11445695422023319</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n" s="393">
+        <v>0.04606028751319116</v>
+      </c>
+      <c r="B34" t="n" s="394">
+        <v>-0.3506275080934047</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n" s="393">
+        <v>0.12162452912090042</v>
+      </c>
+      <c r="B35" t="n" s="394">
+        <v>-0.726351606846974</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n" s="393">
+        <v>-0.12817256933349683</v>
+      </c>
+      <c r="B36" t="n" s="394">
+        <v>0.0060927837546178865</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n" s="393">
+        <v>-0.04861548825069362</v>
+      </c>
+      <c r="B37" t="n" s="394">
+        <v>-1.0275471835870793</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n" s="393">
+        <v>0.0585975394271207</v>
+      </c>
+      <c r="B38" t="n" s="394">
+        <v>-0.11445695422023319</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n" s="393">
+        <v>0.1370768179638137</v>
+      </c>
+      <c r="B39" t="n" s="394">
+        <v>-0.8686977802207364</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n" s="393">
+        <v>0.26183850319100677</v>
+      </c>
+      <c r="B40" t="n" s="394">
+        <v>0.7792092851215531</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n" s="393">
+        <v>-0.12860935188090447</v>
+      </c>
+      <c r="B41" t="n" s="394">
+        <v>-0.23262451137380655</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n" s="393">
+        <v>0.24794158682075626</v>
+      </c>
+      <c r="B42" t="n" s="394">
+        <v>1.7045065858769317</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n" s="393">
+        <v>-0.2655384433709601</v>
+      </c>
+      <c r="B43" t="n" s="394">
+        <v>0.131585852677883</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n" s="393">
+        <v>0.26183850319100677</v>
+      </c>
+      <c r="B44" t="n" s="394">
+        <v>1.7045065858769317</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n" s="393">
+        <v>-0.11548307838786905</v>
+      </c>
+      <c r="B45" t="n" s="394">
+        <v>-0.726351606846974</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n" s="393">
+        <v>-0.03932367134088546</v>
+      </c>
+      <c r="B46" t="n" s="394">
+        <v>0.5788749914041235</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n" s="393">
+        <v>0.08707774921428053</v>
+      </c>
+      <c r="B47" t="n" s="394">
+        <v>0.5788749914041235</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n" s="393">
+        <v>0.09113829642544496</v>
+      </c>
+      <c r="B48" t="n" s="394">
+        <v>1.040453210586121</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n" s="393">
+        <v>0.021253369511404815</v>
+      </c>
+      <c r="B49" t="n" s="394">
+        <v>-0.8686977802207364</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="398">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="412">
+        <v>15</v>
+      </c>
+      <c r="B53" t="s" s="412">
+        <v>16</v>
+      </c>
+      <c r="C53" t="s" s="412">
+        <v>17</v>
+      </c>
+      <c r="D53" t="s" s="412">
+        <v>18</v>
+      </c>
+      <c r="E53" t="s" s="412">
+        <v>19</v>
+      </c>
+      <c r="F53" t="s" s="412">
+        <v>20</v>
+      </c>
+      <c r="G53" t="s" s="412">
+        <v>3</v>
+      </c>
+      <c r="H53" t="s" s="412">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n" s="413">
+        <v>10169.0</v>
+      </c>
+      <c r="B54" t="n" s="414">
+        <v>1.0377538E7</v>
+      </c>
+      <c r="C54" t="s" s="415">
+        <v>38</v>
+      </c>
+      <c r="D54" t="s" s="416">
+        <v>39</v>
+      </c>
+      <c r="E54" t="s" s="417">
+        <v>30</v>
+      </c>
+      <c r="F54" t="s" s="418">
+        <v>51</v>
+      </c>
+      <c r="G54" t="n" s="419">
+        <v>-0.24347675348321504</v>
+      </c>
+      <c r="H54" t="n" s="420">
+        <v>-0.8686977802207364</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n" s="413">
+        <v>10170.0</v>
+      </c>
+      <c r="B55" t="n" s="414">
+        <v>1.0260351E7</v>
+      </c>
+      <c r="C55" t="s" s="415">
+        <v>38</v>
+      </c>
+      <c r="D55" t="s" s="416">
+        <v>40</v>
+      </c>
+      <c r="E55" t="s" s="417">
+        <v>30</v>
+      </c>
+      <c r="F55" t="s" s="418">
+        <v>51</v>
+      </c>
+      <c r="G55" t="n" s="419">
+        <v>-0.10954686591505286</v>
+      </c>
+      <c r="H55" t="n" s="420">
+        <v>0.0060927837546178865</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n" s="413">
+        <v>10174.0</v>
+      </c>
+      <c r="B56" t="n" s="414">
+        <v>1.0276852E7</v>
+      </c>
+      <c r="C56" t="s" s="415">
+        <v>38</v>
+      </c>
+      <c r="D56" t="s" s="416">
+        <v>41</v>
+      </c>
+      <c r="E56" t="s" s="417">
+        <v>30</v>
+      </c>
+      <c r="F56" t="s" s="418">
+        <v>51</v>
+      </c>
+      <c r="G56" t="n" s="419">
+        <v>-0.0018499700899766713</v>
+      </c>
+      <c r="H56" t="n" s="420">
+        <v>-1.0275471835870793</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n" s="413">
+        <v>10176.0</v>
+      </c>
+      <c r="B57" t="n" s="414">
+        <v>1.0276949E7</v>
+      </c>
+      <c r="C57" t="s" s="415">
+        <v>38</v>
+      </c>
+      <c r="D57" t="s" s="416">
+        <v>42</v>
+      </c>
+      <c r="E57" t="s" s="417">
+        <v>30</v>
+      </c>
+      <c r="F57" t="s" s="418">
+        <v>51</v>
+      </c>
+      <c r="G57" t="n" s="419">
+        <v>-0.03771384210411363</v>
+      </c>
+      <c r="H57" t="n" s="420">
+        <v>-1.0275471835870793</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n" s="413">
+        <v>10178.0</v>
+      </c>
+      <c r="B58" t="n" s="414">
+        <v>8656201.0</v>
+      </c>
+      <c r="C58" t="s" s="415">
+        <v>38</v>
+      </c>
+      <c r="D58" t="s" s="416">
+        <v>43</v>
+      </c>
+      <c r="E58" t="s" s="417">
+        <v>30</v>
+      </c>
+      <c r="F58" t="s" s="418">
+        <v>51</v>
+      </c>
+      <c r="G58" t="n" s="419">
+        <v>-0.10127107756118965</v>
+      </c>
+      <c r="H58" t="n" s="420">
+        <v>-0.11445695422023319</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n" s="413">
+        <v>10181.0</v>
+      </c>
+      <c r="B59" t="n" s="414">
+        <v>1.0276866E7</v>
+      </c>
+      <c r="C59" t="s" s="415">
+        <v>38</v>
+      </c>
+      <c r="D59" t="s" s="416">
+        <v>44</v>
+      </c>
+      <c r="E59" t="s" s="417">
+        <v>30</v>
+      </c>
+      <c r="F59" t="s" s="418">
+        <v>51</v>
+      </c>
+      <c r="G59" t="n" s="419">
+        <v>0.04606028751319116</v>
+      </c>
+      <c r="H59" t="n" s="420">
+        <v>-0.3506275080934047</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n" s="413">
+        <v>10183.0</v>
+      </c>
+      <c r="B60" t="n" s="414">
+        <v>1.035203E7</v>
+      </c>
+      <c r="C60" t="s" s="415">
+        <v>38</v>
+      </c>
+      <c r="D60" t="s" s="416">
+        <v>29</v>
+      </c>
+      <c r="E60" t="s" s="417">
+        <v>30</v>
+      </c>
+      <c r="F60" t="s" s="418">
+        <v>32</v>
+      </c>
+      <c r="G60" t="n" s="419">
+        <v>0.12162452912090042</v>
+      </c>
+      <c r="H60" t="n" s="420">
+        <v>-0.726351606846974</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n" s="413">
+        <v>10186.0</v>
+      </c>
+      <c r="B61" t="n" s="414">
+        <v>1.0310551E7</v>
+      </c>
+      <c r="C61" t="s" s="415">
+        <v>38</v>
+      </c>
+      <c r="D61" t="s" s="416">
+        <v>45</v>
+      </c>
+      <c r="E61" t="s" s="417">
+        <v>30</v>
+      </c>
+      <c r="F61" t="s" s="418">
+        <v>51</v>
+      </c>
+      <c r="G61" t="n" s="419">
+        <v>-0.12817256933349683</v>
+      </c>
+      <c r="H61" t="n" s="420">
+        <v>0.0060927837546178865</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n" s="413">
+        <v>10189.0</v>
+      </c>
+      <c r="B62" t="n" s="414">
+        <v>9363926.0</v>
+      </c>
+      <c r="C62" t="s" s="415">
+        <v>38</v>
+      </c>
+      <c r="D62" t="s" s="416">
+        <v>46</v>
+      </c>
+      <c r="E62" t="s" s="417">
+        <v>30</v>
+      </c>
+      <c r="F62" t="s" s="418">
+        <v>51</v>
+      </c>
+      <c r="G62" t="n" s="419">
+        <v>-0.04861548825069362</v>
+      </c>
+      <c r="H62" t="n" s="420">
+        <v>-1.0275471835870793</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n" s="413">
+        <v>10190.0</v>
+      </c>
+      <c r="B63" t="n" s="414">
+        <v>1.0276907E7</v>
+      </c>
+      <c r="C63" t="s" s="415">
+        <v>38</v>
+      </c>
+      <c r="D63" t="s" s="416">
+        <v>47</v>
+      </c>
+      <c r="E63" t="s" s="417">
+        <v>30</v>
+      </c>
+      <c r="F63" t="s" s="418">
+        <v>51</v>
+      </c>
+      <c r="G63" t="n" s="419">
+        <v>0.0585975394271207</v>
+      </c>
+      <c r="H63" t="n" s="420">
+        <v>-0.11445695422023319</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n" s="413">
+        <v>10196.0</v>
+      </c>
+      <c r="B64" t="n" s="414">
+        <v>1.0310655E7</v>
+      </c>
+      <c r="C64" t="s" s="415">
+        <v>38</v>
+      </c>
+      <c r="D64" t="s" s="416">
+        <v>45</v>
+      </c>
+      <c r="E64" t="s" s="417">
+        <v>30</v>
+      </c>
+      <c r="F64" t="s" s="418">
+        <v>51</v>
+      </c>
+      <c r="G64" t="n" s="419">
+        <v>0.1370768179638137</v>
+      </c>
+      <c r="H64" t="n" s="420">
+        <v>-0.8686977802207364</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n" s="413">
+        <v>10198.0</v>
+      </c>
+      <c r="B65" t="n" s="414">
+        <v>1.0310888E7</v>
+      </c>
+      <c r="C65" t="s" s="415">
+        <v>38</v>
+      </c>
+      <c r="D65" t="s" s="416">
+        <v>41</v>
+      </c>
+      <c r="E65" t="s" s="417">
+        <v>30</v>
+      </c>
+      <c r="F65" t="s" s="418">
+        <v>51</v>
+      </c>
+      <c r="G65" t="n" s="419">
+        <v>0.26183850319100677</v>
+      </c>
+      <c r="H65" t="n" s="420">
+        <v>0.7792092851215531</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n" s="413">
+        <v>10200.0</v>
+      </c>
+      <c r="B66" t="n" s="414">
+        <v>9795272.0</v>
+      </c>
+      <c r="C66" t="s" s="415">
+        <v>38</v>
+      </c>
+      <c r="D66" t="s" s="416">
+        <v>48</v>
+      </c>
+      <c r="E66" t="s" s="417">
+        <v>30</v>
+      </c>
+      <c r="F66" t="s" s="418">
+        <v>51</v>
+      </c>
+      <c r="G66" t="n" s="419">
+        <v>-0.12860935188090447</v>
+      </c>
+      <c r="H66" t="n" s="420">
+        <v>-0.23262451137380655</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n" s="413">
+        <v>10215.0</v>
+      </c>
+      <c r="B67" t="n" s="414">
+        <v>9285227.0</v>
+      </c>
+      <c r="C67" t="s" s="415">
+        <v>38</v>
+      </c>
+      <c r="D67" t="s" s="416">
+        <v>44</v>
+      </c>
+      <c r="E67" t="s" s="417">
+        <v>30</v>
+      </c>
+      <c r="F67" t="s" s="418">
+        <v>51</v>
+      </c>
+      <c r="G67" t="n" s="419">
+        <v>0.24794158682075626</v>
+      </c>
+      <c r="H67" t="n" s="420">
+        <v>1.7045065858769317</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n" s="413">
+        <v>10218.0</v>
+      </c>
+      <c r="B68" t="n" s="414">
+        <v>9842913.0</v>
+      </c>
+      <c r="C68" t="s" s="415">
+        <v>38</v>
+      </c>
+      <c r="D68" t="s" s="416">
+        <v>39</v>
+      </c>
+      <c r="E68" t="s" s="417">
+        <v>30</v>
+      </c>
+      <c r="F68" t="s" s="418">
+        <v>51</v>
+      </c>
+      <c r="G68" t="n" s="419">
+        <v>-0.2655384433709601</v>
+      </c>
+      <c r="H68" t="n" s="420">
+        <v>0.131585852677883</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n" s="413">
+        <v>10220.0</v>
+      </c>
+      <c r="B69" t="n" s="414">
+        <v>9760151.0</v>
+      </c>
+      <c r="C69" t="s" s="415">
+        <v>38</v>
+      </c>
+      <c r="D69" t="s" s="416">
+        <v>48</v>
+      </c>
+      <c r="E69" t="s" s="417">
+        <v>30</v>
+      </c>
+      <c r="F69" t="s" s="418">
+        <v>51</v>
+      </c>
+      <c r="G69" t="n" s="419">
+        <v>0.26183850319100677</v>
+      </c>
+      <c r="H69" t="n" s="420">
+        <v>1.7045065858769317</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n" s="413">
+        <v>10221.0</v>
+      </c>
+      <c r="B70" t="n" s="414">
+        <v>9082496.0</v>
+      </c>
+      <c r="C70" t="s" s="415">
+        <v>38</v>
+      </c>
+      <c r="D70" t="s" s="416">
+        <v>49</v>
+      </c>
+      <c r="E70" t="s" s="417">
+        <v>30</v>
+      </c>
+      <c r="F70" t="s" s="418">
+        <v>51</v>
+      </c>
+      <c r="G70" t="n" s="419">
+        <v>-0.11548307838786905</v>
+      </c>
+      <c r="H70" t="n" s="420">
+        <v>-0.726351606846974</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n" s="413">
+        <v>10224.0</v>
+      </c>
+      <c r="B71" t="n" s="414">
+        <v>9368772.0</v>
+      </c>
+      <c r="C71" t="s" s="415">
+        <v>38</v>
+      </c>
+      <c r="D71" t="s" s="416">
+        <v>42</v>
+      </c>
+      <c r="E71" t="s" s="417">
+        <v>30</v>
+      </c>
+      <c r="F71" t="s" s="418">
+        <v>51</v>
+      </c>
+      <c r="G71" t="n" s="419">
+        <v>-0.03932367134088546</v>
+      </c>
+      <c r="H71" t="n" s="420">
+        <v>0.5788749914041235</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n" s="413">
+        <v>10227.0</v>
+      </c>
+      <c r="B72" t="n" s="414">
+        <v>9274382.0</v>
+      </c>
+      <c r="C72" t="s" s="415">
+        <v>38</v>
+      </c>
+      <c r="D72" t="s" s="416">
+        <v>46</v>
+      </c>
+      <c r="E72" t="s" s="417">
+        <v>30</v>
+      </c>
+      <c r="F72" t="s" s="418">
+        <v>51</v>
+      </c>
+      <c r="G72" t="n" s="419">
+        <v>0.08707774921428053</v>
+      </c>
+      <c r="H72" t="n" s="420">
+        <v>0.5788749914041235</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n" s="413">
+        <v>10232.0</v>
+      </c>
+      <c r="B73" t="n" s="414">
+        <v>1.0276974E7</v>
+      </c>
+      <c r="C73" t="s" s="415">
+        <v>38</v>
+      </c>
+      <c r="D73" t="s" s="416">
+        <v>49</v>
+      </c>
+      <c r="E73" t="s" s="417">
+        <v>30</v>
+      </c>
+      <c r="F73" t="s" s="418">
+        <v>51</v>
+      </c>
+      <c r="G73" t="n" s="419">
+        <v>0.09113829642544496</v>
+      </c>
+      <c r="H73" t="n" s="420">
+        <v>1.040453210586121</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n" s="413">
+        <v>10240.0</v>
+      </c>
+      <c r="B74" t="n" s="414">
+        <v>1.0276654E7</v>
+      </c>
+      <c r="C74" t="s" s="415">
+        <v>38</v>
+      </c>
+      <c r="D74" t="s" s="416">
+        <v>47</v>
+      </c>
+      <c r="E74" t="s" s="417">
+        <v>30</v>
+      </c>
+      <c r="F74" t="s" s="418">
+        <v>51</v>
+      </c>
+      <c r="G74" t="n" s="419">
+        <v>0.021253369511404815</v>
+      </c>
+      <c r="H74" t="n" s="420">
+        <v>-0.8686977802207364</v>
       </c>
     </row>
   </sheetData>
